--- a/eval/retrievalData.xlsx
+++ b/eval/retrievalData.xlsx
@@ -15,7 +15,7 @@
     <sheet name="run_noSW" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="run_noSM" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="runBasic" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="10_models" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="modelsComp" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t xml:space="preserve">Row</t>
   </si>
@@ -68,6 +68,18 @@
     <t xml:space="preserve">CondFuse</t>
   </si>
   <si>
+    <t xml:space="preserve">MAP_run_noSM_noSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP_run_noSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP_run_noSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP_runBasic</t>
+  </si>
+  <si>
     <t xml:space="preserve">matters_BB2c10</t>
   </si>
   <si>
@@ -96,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">TF_IDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meanAP</t>
   </si>
 </sst>
 </file>
@@ -109,7 +118,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -130,6 +139,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +216,1164 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF950E"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF4B1F6F"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Models' performance with/without stoplist and-or stemmer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.326988746028447"/>
+          <c:y val="0.0315733047440365"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matters_BB2c10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.168091397681792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183678831677403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.175532144750694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188066752159386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matters_BM25b075</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1697337344507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1853394470288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.170084740685309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.182686502072791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17175444738866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.175628017127146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17179576204919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.175813461937842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFIZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.173131108166244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.177889715448517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173022755111214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178287549430037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DLH13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.167988856934773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.182788924782084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.175289678910657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.182900380456312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DirichletLM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.194487084077638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.193372336332764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.192243188980184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186241667806029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matters_Hiemstra_LM015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.166189601657094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.169369988479296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.169481514373925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173262789454158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matters_IFB2c10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.167988856934773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.182788924782084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.175289678910657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.187965379411078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>matters_InL2c10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.173623934508851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.188137341516006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173681362470931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.185346373645499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>modelsComp!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TF_IDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>modelsComp!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAP_run_noSM_noSW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP_run_noSW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_run_noSM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP_runBasic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>modelsComp!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.169242440666161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185608170350133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.169836726915819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.182060347314945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="19760015"/>
+        <c:axId val="30516967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="19760015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>indexing/retrieval settings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30516967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30516967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>MAP values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19760015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-2520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="-2520" y="2277000"/>
+        <a:ext cx="12123360" cy="6715440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -202,7 +1383,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -228,7 +1409,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -254,7 +1435,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -280,13 +1461,13 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
@@ -469,13 +1650,13 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
@@ -658,13 +1839,13 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
@@ -847,13 +2028,13 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
@@ -1034,28 +2215,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,58 +2246,175 @@
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="0" t="n">
+        <v>0.168091397681792</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.183678831677403</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.175532144750694</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.188066752159386</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" s="0" t="n">
+        <v>0.1697337344507</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.1853394470288</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.170084740685309</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.182686502072791</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4" s="0" t="n">
+        <v>0.17175444738866</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.175628017127146</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.17179576204919</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.175813461937842</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B5" s="0" t="n">
+        <v>0.173131108166244</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.177889715448517</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.173022755111214</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.178287549430037</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B6" s="0" t="n">
+        <v>0.167988856934773</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.182788924782084</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.175289678910657</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.182900380456312</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="0" t="n">
+        <v>0.194487084077638</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.193372336332764</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.192243188980184</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.186241667806029</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.188066057041676</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.182684390778976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.175812402819809</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.178286867290404</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.182902784085062</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.186239101132127</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.173263479898808</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.187966818110715</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.185345612752723</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0.182058412963292</v>
+      <c r="B8" s="0" t="n">
+        <v>0.166189601657094</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.169369988479296</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.169481514373925</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.173262789454158</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.167988856934773</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.182788924782084</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.175289678910657</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.187965379411078</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.173623934508851</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.188137341516006</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.173681362470931</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.185346373645499</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.169242440666161</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.185608170350133</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.169836726915819</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.182060347314945</v>
       </c>
     </row>
   </sheetData>
@@ -1133,5 +2425,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>